--- a/data/pca/factorExposure/factorExposure_2016-12-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-12-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.0169324860707461</v>
+        <v>-0.01395131319255851</v>
       </c>
       <c r="C2">
-        <v>-0.03881692949754579</v>
+        <v>-0.04112811196636933</v>
       </c>
       <c r="D2">
-        <v>-0.03051282769846476</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03266022427135119</v>
+      </c>
+      <c r="E2">
+        <v>0.05398763091659835</v>
+      </c>
+      <c r="F2">
+        <v>-0.01643370772326664</v>
+      </c>
+      <c r="G2">
+        <v>-0.1021475219793245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.06492499591721956</v>
+        <v>-0.03576740004593215</v>
       </c>
       <c r="C3">
-        <v>-0.1024654765590025</v>
+        <v>-0.09213654705589686</v>
       </c>
       <c r="D3">
-        <v>-0.01996144213356121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01927130666882836</v>
+      </c>
+      <c r="E3">
+        <v>0.09904844881084787</v>
+      </c>
+      <c r="F3">
+        <v>-0.0276578048802132</v>
+      </c>
+      <c r="G3">
+        <v>-0.1058646909190161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06664420935698222</v>
+        <v>-0.05533532816319734</v>
       </c>
       <c r="C4">
-        <v>-0.06074497671184782</v>
+        <v>-0.05866888481799937</v>
       </c>
       <c r="D4">
-        <v>-0.02534387123115178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02739562205157749</v>
+      </c>
+      <c r="E4">
+        <v>0.053893502523276</v>
+      </c>
+      <c r="F4">
+        <v>-0.006883396694794172</v>
+      </c>
+      <c r="G4">
+        <v>-0.09225441969719277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.02373094984991525</v>
+        <v>-0.03379678954508811</v>
       </c>
       <c r="C6">
-        <v>-0.05300698822155864</v>
+        <v>-0.04066420283262409</v>
       </c>
       <c r="D6">
-        <v>-0.02200742851973348</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02067711074593459</v>
+      </c>
+      <c r="E6">
+        <v>0.06280912756653313</v>
+      </c>
+      <c r="F6">
+        <v>-0.0092990308472058</v>
+      </c>
+      <c r="G6">
+        <v>-0.08338549940515168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0200878715719923</v>
+        <v>-0.02000615726320168</v>
       </c>
       <c r="C7">
-        <v>-0.04296326918830472</v>
+        <v>-0.03496830178048664</v>
       </c>
       <c r="D7">
-        <v>-0.01760273271834257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01629783343909671</v>
+      </c>
+      <c r="E7">
+        <v>0.02924701581930066</v>
+      </c>
+      <c r="F7">
+        <v>0.001739966536133841</v>
+      </c>
+      <c r="G7">
+        <v>-0.1232482809397322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.002640877672420648</v>
+        <v>-0.004674713860372033</v>
       </c>
       <c r="C8">
-        <v>-0.01036054416854553</v>
+        <v>-0.02011779669921223</v>
       </c>
       <c r="D8">
-        <v>-0.004343136049124279</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.005005977646469351</v>
+      </c>
+      <c r="E8">
+        <v>0.03621857091121293</v>
+      </c>
+      <c r="F8">
+        <v>-0.006081969816837218</v>
+      </c>
+      <c r="G8">
+        <v>-0.06696662003836031</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.02934031609482519</v>
+        <v>-0.03402700036232041</v>
       </c>
       <c r="C9">
-        <v>-0.0419781434766023</v>
+        <v>-0.04467551117129342</v>
       </c>
       <c r="D9">
-        <v>-0.01813245665862001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01817191412004368</v>
+      </c>
+      <c r="E9">
+        <v>0.0383210064605029</v>
+      </c>
+      <c r="F9">
+        <v>-0.004434252588146581</v>
+      </c>
+      <c r="G9">
+        <v>-0.09804554214716181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.07632502659220215</v>
+        <v>-0.09559965030368033</v>
       </c>
       <c r="C10">
-        <v>0.1888289603820432</v>
+        <v>0.1921960460925216</v>
       </c>
       <c r="D10">
-        <v>0.05258249941472381</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01485412306030842</v>
+      </c>
+      <c r="E10">
+        <v>0.01619483303308076</v>
+      </c>
+      <c r="F10">
+        <v>-0.03027229843107421</v>
+      </c>
+      <c r="G10">
+        <v>-0.05422465443215962</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04008278369683137</v>
+        <v>-0.03553909413483158</v>
       </c>
       <c r="C11">
-        <v>-0.05409382492493289</v>
+        <v>-0.05119923912606898</v>
       </c>
       <c r="D11">
-        <v>-0.005448965275975035</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.003277187673638892</v>
+      </c>
+      <c r="E11">
+        <v>0.02768415020685433</v>
+      </c>
+      <c r="F11">
+        <v>0.01402965102615354</v>
+      </c>
+      <c r="G11">
+        <v>-0.07412245687578518</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.03769507328831132</v>
+        <v>-0.03662308486391148</v>
       </c>
       <c r="C12">
-        <v>-0.04379445450228146</v>
+        <v>-0.04652427807431384</v>
       </c>
       <c r="D12">
-        <v>-0.009043000317649824</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.007501817347111038</v>
+      </c>
+      <c r="E12">
+        <v>0.01802889318028847</v>
+      </c>
+      <c r="F12">
+        <v>0.004677137361393378</v>
+      </c>
+      <c r="G12">
+        <v>-0.07372455606899232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01018048498699937</v>
+        <v>-0.01056584160335394</v>
       </c>
       <c r="C13">
-        <v>-0.03266637960650137</v>
+        <v>-0.03599368092850643</v>
       </c>
       <c r="D13">
-        <v>-0.02777883095908237</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.03070589057857689</v>
+      </c>
+      <c r="E13">
+        <v>0.06235519317310564</v>
+      </c>
+      <c r="F13">
+        <v>-0.01968136375031347</v>
+      </c>
+      <c r="G13">
+        <v>-0.1299655180548909</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.007838488025233167</v>
+        <v>-0.00806527346980866</v>
       </c>
       <c r="C14">
-        <v>-0.0268725272358422</v>
+        <v>-0.02684062393048673</v>
       </c>
       <c r="D14">
-        <v>-0.01174709482343047</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01233959182244386</v>
+      </c>
+      <c r="E14">
+        <v>0.02299961990116538</v>
+      </c>
+      <c r="F14">
+        <v>-0.007380596387563513</v>
+      </c>
+      <c r="G14">
+        <v>-0.1146917509623439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03474949728956419</v>
+        <v>-0.0343563369775329</v>
       </c>
       <c r="C16">
-        <v>-0.04063836586973562</v>
+        <v>-0.04410570649080763</v>
       </c>
       <c r="D16">
-        <v>-0.003677768261235936</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002929106056721354</v>
+      </c>
+      <c r="E16">
+        <v>0.02388449628401219</v>
+      </c>
+      <c r="F16">
+        <v>-0.003287668262740547</v>
+      </c>
+      <c r="G16">
+        <v>-0.08095887137452551</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.02983979007785847</v>
+        <v>-0.01726903264477499</v>
       </c>
       <c r="C19">
-        <v>-0.05544881356444907</v>
+        <v>-0.04748330119629469</v>
       </c>
       <c r="D19">
-        <v>-0.0200403636929564</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.02411270105320114</v>
+      </c>
+      <c r="E19">
+        <v>0.101957631043498</v>
+      </c>
+      <c r="F19">
+        <v>-0.02024028933063817</v>
+      </c>
+      <c r="G19">
+        <v>-0.1353658637549029</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01321414755487335</v>
+        <v>-0.01500618832376452</v>
       </c>
       <c r="C20">
-        <v>-0.04127688639263873</v>
+        <v>-0.03553528311972504</v>
       </c>
       <c r="D20">
-        <v>-0.01758072179433078</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01658538514005271</v>
+      </c>
+      <c r="E20">
+        <v>0.04696948548193979</v>
+      </c>
+      <c r="F20">
+        <v>-0.03006209583648109</v>
+      </c>
+      <c r="G20">
+        <v>-0.1054895197108396</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.005770504443942232</v>
+        <v>-0.005506852069814471</v>
       </c>
       <c r="C21">
-        <v>-0.03424042574968657</v>
+        <v>-0.03500028713176296</v>
       </c>
       <c r="D21">
-        <v>-0.02006372723374145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02315034851719322</v>
+      </c>
+      <c r="E21">
+        <v>0.06662688928590568</v>
+      </c>
+      <c r="F21">
+        <v>-0.02156414888285432</v>
+      </c>
+      <c r="G21">
+        <v>-0.1503555589306539</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.0009592623073132288</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.0115648660676211</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.003664692060999692</v>
+      </c>
+      <c r="E22">
+        <v>0.02491918714847144</v>
+      </c>
+      <c r="F22">
+        <v>0.002785404048650814</v>
+      </c>
+      <c r="G22">
+        <v>-0.007450646974591737</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.0009699483144285306</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.0115360424911481</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.003644715000853232</v>
+      </c>
+      <c r="E23">
+        <v>0.02473886711720198</v>
+      </c>
+      <c r="F23">
+        <v>0.002485347330149207</v>
+      </c>
+      <c r="G23">
+        <v>-0.007274742248636805</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.02807190697178095</v>
+        <v>-0.03029058815226009</v>
       </c>
       <c r="C24">
-        <v>-0.04711414968361229</v>
+        <v>-0.04951463400586716</v>
       </c>
       <c r="D24">
-        <v>-0.01061343976001103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.008100830290112543</v>
+      </c>
+      <c r="E24">
+        <v>0.02262071769481639</v>
+      </c>
+      <c r="F24">
+        <v>0.006027419001833229</v>
+      </c>
+      <c r="G24">
+        <v>-0.08084386904561197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04711544976167913</v>
+        <v>-0.04285488716225131</v>
       </c>
       <c r="C25">
-        <v>-0.05214556394979224</v>
+        <v>-0.05593998553639482</v>
       </c>
       <c r="D25">
-        <v>-0.01419743495758246</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01214962856591088</v>
+      </c>
+      <c r="E25">
+        <v>0.01525781251439748</v>
+      </c>
+      <c r="F25">
+        <v>0.005082253395721405</v>
+      </c>
+      <c r="G25">
+        <v>-0.08873759054155543</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.004769072340175933</v>
+        <v>-0.01411641526380737</v>
       </c>
       <c r="C26">
-        <v>-0.007743408759412775</v>
+        <v>-0.009327386571820867</v>
       </c>
       <c r="D26">
-        <v>-0.02365994706583902</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02497937757650339</v>
+      </c>
+      <c r="E26">
+        <v>0.01694169937466974</v>
+      </c>
+      <c r="F26">
+        <v>-0.006915069202164613</v>
+      </c>
+      <c r="G26">
+        <v>-0.08434298411222867</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.09356710949309618</v>
+        <v>-0.1247905610629395</v>
       </c>
       <c r="C28">
-        <v>0.2207854553062968</v>
+        <v>0.2446244523804731</v>
       </c>
       <c r="D28">
-        <v>0.04727066282004837</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006297253576886481</v>
+      </c>
+      <c r="E28">
+        <v>-0.002365578188820304</v>
+      </c>
+      <c r="F28">
+        <v>-0.03106663076999228</v>
+      </c>
+      <c r="G28">
+        <v>-0.05185387968430726</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.01280378656758877</v>
+        <v>-0.007153718374559425</v>
       </c>
       <c r="C29">
-        <v>-0.01904614140941903</v>
+        <v>-0.02141406242954946</v>
       </c>
       <c r="D29">
-        <v>-0.009117111864935334</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01099705297013442</v>
+      </c>
+      <c r="E29">
+        <v>0.01442107265880942</v>
+      </c>
+      <c r="F29">
+        <v>-0.01071183560872452</v>
+      </c>
+      <c r="G29">
+        <v>-0.1027267599366001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.03845838742065766</v>
+        <v>-0.03845942614792601</v>
       </c>
       <c r="C30">
-        <v>-0.07181177781425087</v>
+        <v>-0.06491867413513931</v>
       </c>
       <c r="D30">
-        <v>-0.03331265697607057</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.03316979306162321</v>
+      </c>
+      <c r="E30">
+        <v>0.08502816912770536</v>
+      </c>
+      <c r="F30">
+        <v>0.01764839869167665</v>
+      </c>
+      <c r="G30">
+        <v>-0.1185339955376574</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.04171387048999823</v>
+        <v>-0.05514188787841703</v>
       </c>
       <c r="C31">
-        <v>-0.02448348779006049</v>
+        <v>-0.04024281535429879</v>
       </c>
       <c r="D31">
-        <v>-0.004235498743134752</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.00448065427148074</v>
+      </c>
+      <c r="E31">
+        <v>0.001049702237400053</v>
+      </c>
+      <c r="F31">
+        <v>-0.03464066662661155</v>
+      </c>
+      <c r="G31">
+        <v>-0.09382488759297733</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.01207625165752747</v>
+        <v>-0.002340395650140593</v>
       </c>
       <c r="C32">
-        <v>-0.03716775544487909</v>
+        <v>-0.02270717583220486</v>
       </c>
       <c r="D32">
-        <v>0.001325773008403966</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.000274735483784385</v>
+      </c>
+      <c r="E32">
+        <v>0.05330207970099245</v>
+      </c>
+      <c r="F32">
+        <v>0.01896462751754085</v>
+      </c>
+      <c r="G32">
+        <v>-0.07059244460586248</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.03022915400733634</v>
+        <v>-0.02601611422307561</v>
       </c>
       <c r="C33">
-        <v>-0.05408483272586102</v>
+        <v>-0.04723874908763309</v>
       </c>
       <c r="D33">
-        <v>-0.01795307589275438</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01958587134299624</v>
+      </c>
+      <c r="E33">
+        <v>0.07033095393324169</v>
+      </c>
+      <c r="F33">
+        <v>-0.002989263327579354</v>
+      </c>
+      <c r="G33">
+        <v>-0.1558852559371278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05351251914664507</v>
+        <v>-0.04077993829320672</v>
       </c>
       <c r="C34">
-        <v>-0.0530515495123005</v>
+        <v>-0.05909300089411059</v>
       </c>
       <c r="D34">
-        <v>0.002973867889015722</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.00338565586908587</v>
+      </c>
+      <c r="E34">
+        <v>0.02248771696278332</v>
+      </c>
+      <c r="F34">
+        <v>0.02001172274934347</v>
+      </c>
+      <c r="G34">
+        <v>-0.07695513721989719</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.008914842084145887</v>
+        <v>-0.01508781544531907</v>
       </c>
       <c r="C36">
-        <v>-0.003301189851246587</v>
+        <v>-0.005747583317335592</v>
       </c>
       <c r="D36">
-        <v>-0.01079702863181082</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01424146996612176</v>
+      </c>
+      <c r="E36">
+        <v>0.02115788112085208</v>
+      </c>
+      <c r="F36">
+        <v>-0.009891057719229835</v>
+      </c>
+      <c r="G36">
+        <v>-0.09561593615692728</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03521530365339894</v>
+        <v>-0.03038330994013374</v>
       </c>
       <c r="C38">
-        <v>-0.02324269278819392</v>
+        <v>-0.02298390194789023</v>
       </c>
       <c r="D38">
-        <v>0.008526623358403871</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.005945652745894149</v>
+      </c>
+      <c r="E38">
+        <v>0.02112467609229413</v>
+      </c>
+      <c r="F38">
+        <v>-0.01486356895504724</v>
+      </c>
+      <c r="G38">
+        <v>-0.09061471793316861</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.03729201720847306</v>
+        <v>-0.03614983887730888</v>
       </c>
       <c r="C39">
-        <v>-0.08370123563862403</v>
+        <v>-0.07593855312026107</v>
       </c>
       <c r="D39">
-        <v>-0.01996698816596824</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01417909949145542</v>
+      </c>
+      <c r="E39">
+        <v>0.04452379132822908</v>
+      </c>
+      <c r="F39">
+        <v>0.01615302941032511</v>
+      </c>
+      <c r="G39">
+        <v>-0.0910796452010461</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01753327333475216</v>
+        <v>-0.01562792061197882</v>
       </c>
       <c r="C40">
-        <v>-0.02492312393553899</v>
+        <v>-0.03490316250361729</v>
       </c>
       <c r="D40">
-        <v>-0.01364927754385304</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01630357002709673</v>
+      </c>
+      <c r="E40">
+        <v>0.03455137493867357</v>
+      </c>
+      <c r="F40">
+        <v>-0.02983432973956994</v>
+      </c>
+      <c r="G40">
+        <v>-0.1142572473777443</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01033012974117637</v>
+        <v>-0.0187587564684097</v>
       </c>
       <c r="C41">
-        <v>0.001901155861972616</v>
+        <v>0.001590232341921549</v>
       </c>
       <c r="D41">
-        <v>-0.00214215846210788</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.006064923337281052</v>
+      </c>
+      <c r="E41">
+        <v>0.01715540188582247</v>
+      </c>
+      <c r="F41">
+        <v>-0.0161324517573072</v>
+      </c>
+      <c r="G41">
+        <v>-0.09020661574097223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.01377670676307856</v>
+        <v>-0.005110704855660356</v>
       </c>
       <c r="C42">
-        <v>-0.03133062971302215</v>
+        <v>-0.02477401465685276</v>
       </c>
       <c r="D42">
-        <v>-0.09300916453499689</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08306198045757562</v>
+      </c>
+      <c r="E42">
+        <v>-0.01308394674611028</v>
+      </c>
+      <c r="F42">
+        <v>-0.03035398633452653</v>
+      </c>
+      <c r="G42">
+        <v>0.02225585120242734</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.02983171369585759</v>
+        <v>-0.03328257107301298</v>
       </c>
       <c r="C43">
-        <v>-0.008898571330716027</v>
+        <v>-0.01151049758746385</v>
       </c>
       <c r="D43">
-        <v>-0.002025560283850752</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.007732888622457895</v>
+      </c>
+      <c r="E43">
+        <v>0.0353047852050259</v>
+      </c>
+      <c r="F43">
+        <v>-0.01412323415521928</v>
+      </c>
+      <c r="G43">
+        <v>-0.1154930151838566</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.02048778606260293</v>
+        <v>-0.01374172529048106</v>
       </c>
       <c r="C44">
-        <v>-0.05380036453633929</v>
+        <v>-0.05068681888244866</v>
       </c>
       <c r="D44">
-        <v>-0.01085499215962675</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.009562360245560403</v>
+      </c>
+      <c r="E44">
+        <v>0.04189530687011595</v>
+      </c>
+      <c r="F44">
+        <v>-0.01924916478501052</v>
+      </c>
+      <c r="G44">
+        <v>-0.1181857183015796</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.000226544321576399</v>
+        <v>-0.009467187134846808</v>
       </c>
       <c r="C46">
-        <v>-0.009719026468442223</v>
+        <v>-0.01600958167420009</v>
       </c>
       <c r="D46">
-        <v>-0.01272730976285345</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01393427218573493</v>
+      </c>
+      <c r="E46">
+        <v>0.006851770469070834</v>
+      </c>
+      <c r="F46">
+        <v>-0.01670670340634196</v>
+      </c>
+      <c r="G46">
+        <v>-0.1121827815338024</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.07369576617663001</v>
+        <v>-0.08373903016791916</v>
       </c>
       <c r="C47">
-        <v>-0.06426027025005694</v>
+        <v>-0.07158563890057613</v>
       </c>
       <c r="D47">
-        <v>-0.0005395532235486352</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.004960811578539039</v>
+      </c>
+      <c r="E47">
+        <v>-0.007945820463034709</v>
+      </c>
+      <c r="F47">
+        <v>-0.04242637563284753</v>
+      </c>
+      <c r="G47">
+        <v>-0.08616637539931082</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01204971320080389</v>
+        <v>-0.0169674009081455</v>
       </c>
       <c r="C48">
-        <v>-0.01046032549060158</v>
+        <v>-0.01184992467823985</v>
       </c>
       <c r="D48">
-        <v>-0.001444308973406727</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.003861851969262123</v>
+      </c>
+      <c r="E48">
+        <v>0.01536267048138335</v>
+      </c>
+      <c r="F48">
+        <v>-0.02196025363325076</v>
+      </c>
+      <c r="G48">
+        <v>-0.1082327890348539</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.07931112678490369</v>
+        <v>-0.07750968367110009</v>
       </c>
       <c r="C50">
-        <v>-0.0592055570022943</v>
+        <v>-0.06792101247814529</v>
       </c>
       <c r="D50">
-        <v>7.704225803528252e-05</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.001269780979495044</v>
+      </c>
+      <c r="E50">
+        <v>-0.001193924287537503</v>
+      </c>
+      <c r="F50">
+        <v>-0.04198653973207335</v>
+      </c>
+      <c r="G50">
+        <v>-0.09748651102033784</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01906958705375634</v>
+        <v>-0.0120852804803368</v>
       </c>
       <c r="C51">
-        <v>-0.03871774330410139</v>
+        <v>-0.03213590687670558</v>
       </c>
       <c r="D51">
-        <v>-0.01181340595604899</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01265141365627331</v>
+      </c>
+      <c r="E51">
+        <v>0.04079000645931617</v>
+      </c>
+      <c r="F51">
+        <v>0.007273996281667588</v>
+      </c>
+      <c r="G51">
+        <v>-0.1071140899944956</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1020266321795945</v>
+        <v>-0.08592597120023379</v>
       </c>
       <c r="C53">
-        <v>-0.07205614923487633</v>
+        <v>-0.08540735653970966</v>
       </c>
       <c r="D53">
-        <v>0.0007566397637380982</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003840234792905138</v>
+      </c>
+      <c r="E53">
+        <v>-0.0288550643113251</v>
+      </c>
+      <c r="F53">
+        <v>-0.04571335379022719</v>
+      </c>
+      <c r="G53">
+        <v>-0.08959164234968094</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.0273037539982871</v>
+        <v>-0.03133787774574121</v>
       </c>
       <c r="C54">
-        <v>-0.002411683186203015</v>
+        <v>-0.01662301989434522</v>
       </c>
       <c r="D54">
-        <v>0.005184321571305912</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.001097640211735513</v>
+      </c>
+      <c r="E54">
+        <v>0.02938395203568736</v>
+      </c>
+      <c r="F54">
+        <v>-0.01310753128287946</v>
+      </c>
+      <c r="G54">
+        <v>-0.1128742904797406</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.07718510909697986</v>
+        <v>-0.08067468383930046</v>
       </c>
       <c r="C55">
-        <v>-0.06167646736101146</v>
+        <v>-0.06872773239241163</v>
       </c>
       <c r="D55">
-        <v>0.0002636631279986907</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005990632453288042</v>
+      </c>
+      <c r="E55">
+        <v>-0.03255999194628174</v>
+      </c>
+      <c r="F55">
+        <v>-0.04593810402269694</v>
+      </c>
+      <c r="G55">
+        <v>-0.06690591806754659</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1541976088123282</v>
+        <v>-0.1420948484249049</v>
       </c>
       <c r="C56">
-        <v>-0.09025030965180708</v>
+        <v>-0.1041732218322657</v>
       </c>
       <c r="D56">
-        <v>0.009751857935424338</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01337310654017977</v>
+      </c>
+      <c r="E56">
+        <v>-0.03965353363320043</v>
+      </c>
+      <c r="F56">
+        <v>-0.05695092617890478</v>
+      </c>
+      <c r="G56">
+        <v>-0.05362673402440082</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.009744490836214363</v>
+        <v>-0.003646073199820387</v>
       </c>
       <c r="C57">
-        <v>-0.003232059678943636</v>
+        <v>-0.003235537804813523</v>
       </c>
       <c r="D57">
-        <v>-0.0217018568957523</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02302218536770762</v>
+      </c>
+      <c r="E57">
+        <v>0.02413049917692899</v>
+      </c>
+      <c r="F57">
+        <v>-0.003376790446908621</v>
+      </c>
+      <c r="G57">
+        <v>-0.01172718235951864</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04224990104781234</v>
+        <v>-0.03775723247858174</v>
       </c>
       <c r="C58">
-        <v>-0.06231571063052845</v>
+        <v>-0.03312828289948273</v>
       </c>
       <c r="D58">
-        <v>-0.006643489462393978</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.04028117231802016</v>
+      </c>
+      <c r="E58">
+        <v>0.7105567911351491</v>
+      </c>
+      <c r="F58">
+        <v>-0.5937887460442797</v>
+      </c>
+      <c r="G58">
+        <v>0.3117391823436364</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1423945862904862</v>
+        <v>-0.1497194252839333</v>
       </c>
       <c r="C59">
-        <v>0.2180004077556</v>
+        <v>0.205089239505005</v>
       </c>
       <c r="D59">
-        <v>0.05891852749547936</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.009562634347335482</v>
+      </c>
+      <c r="E59">
+        <v>0.023166883450725</v>
+      </c>
+      <c r="F59">
+        <v>-0.0147824987028788</v>
+      </c>
+      <c r="G59">
+        <v>-0.04025909017304403</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.311637222999519</v>
+        <v>-0.2870813051956926</v>
       </c>
       <c r="C60">
-        <v>-0.08735069790471887</v>
+        <v>-0.09756782644712185</v>
       </c>
       <c r="D60">
-        <v>0.002247052838105945</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01909166898701496</v>
+      </c>
+      <c r="E60">
+        <v>0.13437945605264</v>
+      </c>
+      <c r="F60">
+        <v>0.3035099196157735</v>
+      </c>
+      <c r="G60">
+        <v>0.1615785721673989</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.03356111995214534</v>
+        <v>-0.03853718471106671</v>
       </c>
       <c r="C61">
-        <v>-0.063096109326731</v>
+        <v>-0.06289506517219164</v>
       </c>
       <c r="D61">
-        <v>-0.01081069951641337</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.007768074607955136</v>
+      </c>
+      <c r="E61">
+        <v>0.03934947144744608</v>
+      </c>
+      <c r="F61">
+        <v>0.006067844580929671</v>
+      </c>
+      <c r="G61">
+        <v>-0.08839752092709632</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01423185988357373</v>
+        <v>-0.0146847583776951</v>
       </c>
       <c r="C63">
-        <v>-0.02711454990478235</v>
+        <v>-0.02614671191237792</v>
       </c>
       <c r="D63">
-        <v>-0.01062219656875247</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.009662465372285182</v>
+      </c>
+      <c r="E63">
+        <v>0.01439102497758513</v>
+      </c>
+      <c r="F63">
+        <v>-0.0120837340096757</v>
+      </c>
+      <c r="G63">
+        <v>-0.08825782181664757</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04696889644073342</v>
+        <v>-0.05057657346888513</v>
       </c>
       <c r="C64">
-        <v>-0.03000668036933527</v>
+        <v>-0.04621395615210135</v>
       </c>
       <c r="D64">
-        <v>-0.005319316394939168</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006269840751531958</v>
+      </c>
+      <c r="E64">
+        <v>0.007903440729062067</v>
+      </c>
+      <c r="F64">
+        <v>0.003341678947170225</v>
+      </c>
+      <c r="G64">
+        <v>-0.09334773240840619</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.08259424776195735</v>
+        <v>-0.07096879769869843</v>
       </c>
       <c r="C65">
-        <v>-0.06363380157601761</v>
+        <v>-0.04752205892562367</v>
       </c>
       <c r="D65">
-        <v>-0.01756300644044305</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01972188474189495</v>
+      </c>
+      <c r="E65">
+        <v>0.06587815938418576</v>
+      </c>
+      <c r="F65">
+        <v>0.008224277197991028</v>
+      </c>
+      <c r="G65">
+        <v>-0.03882813690598556</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.05881950068462986</v>
+        <v>-0.04822714248158481</v>
       </c>
       <c r="C66">
-        <v>-0.1230639066357613</v>
+        <v>-0.1010175900854432</v>
       </c>
       <c r="D66">
-        <v>-0.02393989541726305</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01506661429123712</v>
+      </c>
+      <c r="E66">
+        <v>0.06779191014451497</v>
+      </c>
+      <c r="F66">
+        <v>0.02135065309763741</v>
+      </c>
+      <c r="G66">
+        <v>-0.0945057711002204</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.06421944454757397</v>
+        <v>-0.05364156553279222</v>
       </c>
       <c r="C67">
-        <v>-0.02514982122705771</v>
+        <v>-0.02902853805239701</v>
       </c>
       <c r="D67">
-        <v>0.008587871858582537</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.005261801051109281</v>
+      </c>
+      <c r="E67">
+        <v>0.007215107764812524</v>
+      </c>
+      <c r="F67">
+        <v>-0.01037623064897622</v>
+      </c>
+      <c r="G67">
+        <v>-0.07757901033345516</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1083494659382957</v>
+        <v>-0.1526878892931335</v>
       </c>
       <c r="C68">
-        <v>0.2811900795128486</v>
+        <v>0.2699908877612295</v>
       </c>
       <c r="D68">
-        <v>0.04587841218630498</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.006135735151266544</v>
+      </c>
+      <c r="E68">
+        <v>-0.005546872721748885</v>
+      </c>
+      <c r="F68">
+        <v>-0.04374014966740018</v>
+      </c>
+      <c r="G68">
+        <v>-0.02385014534835243</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.08290695516258971</v>
+        <v>-0.08408906127674749</v>
       </c>
       <c r="C69">
-        <v>-0.05933729474382228</v>
+        <v>-0.07560605289700199</v>
       </c>
       <c r="D69">
-        <v>0.005645908295090505</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008361658344911718</v>
+      </c>
+      <c r="E69">
+        <v>-0.01320225167233758</v>
+      </c>
+      <c r="F69">
+        <v>-0.01975663025031833</v>
+      </c>
+      <c r="G69">
+        <v>-0.1014064832990151</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1167994693645135</v>
+        <v>-0.1398691907986688</v>
       </c>
       <c r="C71">
-        <v>0.2276180581708172</v>
+        <v>0.2364012969218083</v>
       </c>
       <c r="D71">
-        <v>0.0493236843546326</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.002215053087048515</v>
+      </c>
+      <c r="E71">
+        <v>0.02403397563546962</v>
+      </c>
+      <c r="F71">
+        <v>-0.03841898908877762</v>
+      </c>
+      <c r="G71">
+        <v>-0.06477618340288722</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.0722742857524539</v>
+        <v>-0.08626820930513672</v>
       </c>
       <c r="C72">
-        <v>-0.06456115215280617</v>
+        <v>-0.05991517699147468</v>
       </c>
       <c r="D72">
-        <v>0.00457300339071259</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.006897153158425422</v>
+      </c>
+      <c r="E72">
+        <v>0.009625589182609211</v>
+      </c>
+      <c r="F72">
+        <v>0.02435000057662803</v>
+      </c>
+      <c r="G72">
+        <v>-0.08412400403220716</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4349848306494069</v>
+        <v>-0.3724965134371881</v>
       </c>
       <c r="C73">
-        <v>-0.09627152579087499</v>
+        <v>-0.08909290658442287</v>
       </c>
       <c r="D73">
-        <v>0.01061053949406219</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.03301081492487394</v>
+      </c>
+      <c r="E73">
+        <v>0.2888015678334236</v>
+      </c>
+      <c r="F73">
+        <v>0.5286429526618218</v>
+      </c>
+      <c r="G73">
+        <v>0.331649528316993</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.119429335924984</v>
+        <v>-0.1088604865870376</v>
       </c>
       <c r="C74">
-        <v>-0.1159841135132025</v>
+        <v>-0.1034259355497027</v>
       </c>
       <c r="D74">
-        <v>-0.0003913831429067418</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009855779877032192</v>
+      </c>
+      <c r="E74">
+        <v>-0.01418013022266317</v>
+      </c>
+      <c r="F74">
+        <v>-0.0592859030052514</v>
+      </c>
+      <c r="G74">
+        <v>-0.07179864814549958</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2613536990112563</v>
+        <v>-0.2526555063814933</v>
       </c>
       <c r="C75">
-        <v>-0.1251330126856559</v>
+        <v>-0.1449691767930734</v>
       </c>
       <c r="D75">
-        <v>0.02369418212786368</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03318300038238482</v>
+      </c>
+      <c r="E75">
+        <v>-0.10397140474477</v>
+      </c>
+      <c r="F75">
+        <v>-0.1282825310498243</v>
+      </c>
+      <c r="G75">
+        <v>-0.02293355875298195</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.123589312488768</v>
+        <v>-0.1225893223619834</v>
       </c>
       <c r="C76">
-        <v>-0.1051251391234289</v>
+        <v>-0.1049561519605804</v>
       </c>
       <c r="D76">
-        <v>0.007962632333360579</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01862200068829866</v>
+      </c>
+      <c r="E76">
+        <v>-0.04346809407617009</v>
+      </c>
+      <c r="F76">
+        <v>-0.07915826943535967</v>
+      </c>
+      <c r="G76">
+        <v>-0.06556661031938155</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.06399288956698188</v>
+        <v>-0.06676311687413916</v>
       </c>
       <c r="C77">
-        <v>-0.05996595325774394</v>
+        <v>-0.06369391496555012</v>
       </c>
       <c r="D77">
-        <v>-0.01137891075732532</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01076731849792225</v>
+      </c>
+      <c r="E77">
+        <v>0.05336503557561227</v>
+      </c>
+      <c r="F77">
+        <v>-0.04011528976118987</v>
+      </c>
+      <c r="G77">
+        <v>-0.1158678046129811</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04964310921994894</v>
+        <v>-0.04083253301878063</v>
       </c>
       <c r="C78">
-        <v>-0.05238756106220272</v>
+        <v>-0.05533224821987816</v>
       </c>
       <c r="D78">
-        <v>-0.007321348337101451</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.01017262915862413</v>
+      </c>
+      <c r="E78">
+        <v>0.05708904793975722</v>
+      </c>
+      <c r="F78">
+        <v>0.02403533995832144</v>
+      </c>
+      <c r="G78">
+        <v>-0.09603576594281438</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.000971283030966372</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0004304290285786099</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.0009619032354560805</v>
+      </c>
+      <c r="E79">
+        <v>0.007696988058012729</v>
+      </c>
+      <c r="F79">
+        <v>-0.002195765176445616</v>
+      </c>
+      <c r="G79">
+        <v>-0.008278452434081091</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.05929334432757924</v>
+        <v>-0.04095232635674335</v>
       </c>
       <c r="C80">
-        <v>-0.06188419318904983</v>
+        <v>-0.04738168339955597</v>
       </c>
       <c r="D80">
-        <v>-0.01599461091406219</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01510946945627031</v>
+      </c>
+      <c r="E80">
+        <v>0.04029322175401035</v>
+      </c>
+      <c r="F80">
+        <v>-0.003960140978164948</v>
+      </c>
+      <c r="G80">
+        <v>-0.04959055542554209</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.138417904491686</v>
+        <v>-0.138084036070775</v>
       </c>
       <c r="C81">
-        <v>-0.07686878278843771</v>
+        <v>-0.09231115603036215</v>
       </c>
       <c r="D81">
-        <v>0.009557330193016416</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01662472826076473</v>
+      </c>
+      <c r="E81">
+        <v>-0.0700496107097983</v>
+      </c>
+      <c r="F81">
+        <v>-0.1030221425081992</v>
+      </c>
+      <c r="G81">
+        <v>-0.03752742183281266</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.05217528576298709</v>
+        <v>-0.1704157200131353</v>
       </c>
       <c r="C82">
-        <v>-0.03744668187638304</v>
+        <v>-0.1219047958987247</v>
       </c>
       <c r="D82">
-        <v>-0.0002874156679506661</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.02037919343668996</v>
+      </c>
+      <c r="E82">
+        <v>-0.1848790799156562</v>
+      </c>
+      <c r="F82">
+        <v>-0.05159629884320825</v>
+      </c>
+      <c r="G82">
+        <v>-0.02301727937247575</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.03020283978115028</v>
+        <v>-0.02832144676091535</v>
       </c>
       <c r="C83">
-        <v>-0.01998859085386421</v>
+        <v>-0.03345939779902167</v>
       </c>
       <c r="D83">
-        <v>-0.004472512571592016</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.007837817215387085</v>
+      </c>
+      <c r="E83">
+        <v>0.03447206305153907</v>
+      </c>
+      <c r="F83">
+        <v>0.009865290023769381</v>
+      </c>
+      <c r="G83">
+        <v>-0.05920241192096073</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2516394723620038</v>
+        <v>-0.2128051000797761</v>
       </c>
       <c r="C85">
-        <v>-0.1267627588803661</v>
+        <v>-0.1291903353228581</v>
       </c>
       <c r="D85">
-        <v>0.01202772368461035</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01952696442615329</v>
+      </c>
+      <c r="E85">
+        <v>-0.1077586966964266</v>
+      </c>
+      <c r="F85">
+        <v>-0.05615569631243166</v>
+      </c>
+      <c r="G85">
+        <v>0.01749506176077882</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.009886546030210554</v>
+        <v>-0.01037083808761378</v>
       </c>
       <c r="C86">
-        <v>-0.02059423153706905</v>
+        <v>-0.02442950233345828</v>
       </c>
       <c r="D86">
-        <v>-0.009158881289739082</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01549268731840565</v>
+      </c>
+      <c r="E86">
+        <v>0.07697968257922941</v>
+      </c>
+      <c r="F86">
+        <v>0.0116685056675787</v>
+      </c>
+      <c r="G86">
+        <v>-0.1698886544830271</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.01476238392510848</v>
+        <v>-0.01977276851214455</v>
       </c>
       <c r="C87">
-        <v>-0.021225263493531</v>
+        <v>-0.01527172318347788</v>
       </c>
       <c r="D87">
-        <v>-0.01006877462055219</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01503946113085908</v>
+      </c>
+      <c r="E87">
+        <v>0.0988806663905383</v>
+      </c>
+      <c r="F87">
+        <v>-0.03634426615341304</v>
+      </c>
+      <c r="G87">
+        <v>-0.1089106296862231</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.09374669600449664</v>
+        <v>-0.0892031047650627</v>
       </c>
       <c r="C88">
-        <v>-0.06054128842283675</v>
+        <v>-0.06330946960945959</v>
       </c>
       <c r="D88">
-        <v>-0.02476787534280747</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02335702069087968</v>
+      </c>
+      <c r="E88">
+        <v>0.007684560711580613</v>
+      </c>
+      <c r="F88">
+        <v>-0.01915684071266259</v>
+      </c>
+      <c r="G88">
+        <v>-0.1066109777774193</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1993022891612853</v>
+        <v>-0.2179823788742217</v>
       </c>
       <c r="C89">
-        <v>0.3765828638439673</v>
+        <v>0.3662636688718687</v>
       </c>
       <c r="D89">
-        <v>0.07455228152592823</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.001184265369296032</v>
+      </c>
+      <c r="E89">
+        <v>-0.02449824528557321</v>
+      </c>
+      <c r="F89">
+        <v>-0.01453381771607007</v>
+      </c>
+      <c r="G89">
+        <v>-0.0918372344648494</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1771736358580348</v>
+        <v>-0.2028430967049316</v>
       </c>
       <c r="C90">
-        <v>0.3397499775703929</v>
+        <v>0.3216408233800178</v>
       </c>
       <c r="D90">
-        <v>0.07215081012206342</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004119466915460748</v>
+      </c>
+      <c r="E90">
+        <v>-0.01486398554316384</v>
+      </c>
+      <c r="F90">
+        <v>-0.05217884296043454</v>
+      </c>
+      <c r="G90">
+        <v>-0.05152446113146856</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.2029804575169536</v>
+        <v>-0.1883721629719206</v>
       </c>
       <c r="C91">
-        <v>-0.111885238919053</v>
+        <v>-0.1309280404961007</v>
       </c>
       <c r="D91">
-        <v>0.01652402298899605</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02377971089603562</v>
+      </c>
+      <c r="E91">
+        <v>-0.08525570629101968</v>
+      </c>
+      <c r="F91">
+        <v>-0.1029870908066786</v>
+      </c>
+      <c r="G91">
+        <v>-0.04351348373581107</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1809372515012262</v>
+        <v>-0.1842655026597297</v>
       </c>
       <c r="C92">
-        <v>0.2633717853576354</v>
+        <v>0.27167937563389</v>
       </c>
       <c r="D92">
-        <v>0.09612439897635865</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03903124209003235</v>
+      </c>
+      <c r="E92">
+        <v>0.01082464367049579</v>
+      </c>
+      <c r="F92">
+        <v>-0.06978617739262052</v>
+      </c>
+      <c r="G92">
+        <v>-0.08018363922404208</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1904954675266213</v>
+        <v>-0.2255483597675702</v>
       </c>
       <c r="C93">
-        <v>0.320732540422234</v>
+        <v>0.3197528407090598</v>
       </c>
       <c r="D93">
-        <v>0.07557525749626624</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.009842996151013831</v>
+      </c>
+      <c r="E93">
+        <v>0.003969159819165733</v>
+      </c>
+      <c r="F93">
+        <v>-0.03526031493816056</v>
+      </c>
+      <c r="G93">
+        <v>-0.05458062141464978</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.2802573793825634</v>
+        <v>-0.33706659103824</v>
       </c>
       <c r="C94">
-        <v>-0.1364113462460534</v>
+        <v>-0.1969559692473349</v>
       </c>
       <c r="D94">
-        <v>0.002518771059958662</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.03338083306921143</v>
+      </c>
+      <c r="E94">
+        <v>-0.3961672175795788</v>
+      </c>
+      <c r="F94">
+        <v>-0.3522226886898567</v>
+      </c>
+      <c r="G94">
+        <v>0.3712192648435542</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.07416872539896974</v>
+        <v>-0.08012598475769807</v>
       </c>
       <c r="C95">
-        <v>-0.09198529583026892</v>
+        <v>-0.08949541794307928</v>
       </c>
       <c r="D95">
-        <v>-0.0004136144294714444</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.007142221187266995</v>
+      </c>
+      <c r="E95">
+        <v>0.1347064877743591</v>
+      </c>
+      <c r="F95">
+        <v>0.1340012890295369</v>
+      </c>
+      <c r="G95">
+        <v>-0.1216913819288116</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2080336946898531</v>
+        <v>-0.1947375028935906</v>
       </c>
       <c r="C98">
-        <v>-0.04786255264667779</v>
+        <v>-0.04641234031486541</v>
       </c>
       <c r="D98">
-        <v>0.02806244576549207</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.008291611880769632</v>
+      </c>
+      <c r="E98">
+        <v>0.1355796233810819</v>
+      </c>
+      <c r="F98">
+        <v>0.1943807807858976</v>
+      </c>
+      <c r="G98">
+        <v>0.06727851694945933</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.0126262583012459</v>
+        <v>-0.007000910434304518</v>
       </c>
       <c r="C101">
-        <v>-0.01936831807015913</v>
+        <v>-0.02130696878907452</v>
       </c>
       <c r="D101">
-        <v>-0.00904305338958342</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01080794046496608</v>
+      </c>
+      <c r="E101">
+        <v>0.01390051040249886</v>
+      </c>
+      <c r="F101">
+        <v>-0.01146499436723409</v>
+      </c>
+      <c r="G101">
+        <v>-0.1024005716123008</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1251224795431303</v>
+        <v>-0.1233341995525984</v>
       </c>
       <c r="C102">
-        <v>-0.07073492618346462</v>
+        <v>-0.09666088279376488</v>
       </c>
       <c r="D102">
-        <v>-0.004605792408265007</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.001094656725571637</v>
+      </c>
+      <c r="E102">
+        <v>-0.05181571496503062</v>
+      </c>
+      <c r="F102">
+        <v>-0.01912585807704734</v>
+      </c>
+      <c r="G102">
+        <v>-0.01850872724574925</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.09767470267149014</v>
+        <v>-0.0197106900310644</v>
       </c>
       <c r="C104">
-        <v>0.1859214336023635</v>
+        <v>0.02686293933439137</v>
       </c>
       <c r="D104">
-        <v>-0.9687266592845755</v>
+        <v>-0.9852054671616324</v>
+      </c>
+      <c r="E104">
+        <v>-0.09724259973164576</v>
+      </c>
+      <c r="F104">
+        <v>-0.01912541085254521</v>
+      </c>
+      <c r="G104">
+        <v>0.03730382720951201</v>
       </c>
     </row>
   </sheetData>
